--- a/2024_11_08.xlsx
+++ b/2024_11_08.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E312"/>
+  <dimension ref="A1:E596"/>
   <sheetViews>
     <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
@@ -7016,23 +7016,5987 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="2" t="n">
         <v>169</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>OUT</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
+      <c r="D312" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="inlineStr">
         <is>
           <t>2024-11-08-09-48-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="C313" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D313" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-13-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="C314" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D314" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-14-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="C315" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D315" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-15-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="C316" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D316" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-15-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C317" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D317" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-16-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="C318" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D318" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-16-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C319" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D319" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-16-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="C320" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D320" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-16-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="C321" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D321" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-17-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="C322" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D322" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-17-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C323" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D323" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-18-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="C324" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D324" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-18-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="C325" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D325" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-19-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="C326" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D326" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-19-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="C327" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D327" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-19-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="C328" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D328" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-19-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C329" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D329" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="C330" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D330" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C331" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D331" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="C332" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D332" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="C333" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D333" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="C334" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D334" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="C335" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D335" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="C336" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D336" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="C337" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D337" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="C338" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D338" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="C339" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D339" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-20-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="C340" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D340" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-21-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="C341" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D341" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-21-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="C342" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D342" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-21-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="C343" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D343" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-24-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="C344" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D344" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-24-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>244</v>
+      </c>
+      <c r="C345" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D345" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-24-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C346" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D346" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-25-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="C347" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D347" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-25-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="C348" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D348" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-25-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="C349" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D349" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-25-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="C350" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D350" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-25-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="C351" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D351" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-26-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="C352" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D352" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-26-32</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C353" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D353" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-53-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C354" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D354" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-53-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="C355" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D355" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-53-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C356" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D356" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-53-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="C357" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D357" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-54-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="C358" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D358" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-54-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="C359" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D359" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="C360" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D360" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E360" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="C361" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D361" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E361" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>278</v>
+      </c>
+      <c r="C362" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D362" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E362" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C363" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D363" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E363" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="C364" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D364" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E364" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C365" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D365" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E365" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="C366" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D366" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E366" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C367" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D367" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E367" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="C368" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D368" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E368" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="C369" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D369" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E369" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="C370" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D370" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E370" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-55-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C371" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D371" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E371" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="C372" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D372" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E372" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="C373" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D373" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E373" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="C374" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D374" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E374" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C375" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D375" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E375" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="C376" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D376" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E376" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="C377" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D377" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E377" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C378" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D378" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E378" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="C379" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D379" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E379" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C380" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D380" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E380" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="C381" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D381" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E381" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="C382" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D382" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E382" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="C383" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D383" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E383" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="C384" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D384" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E384" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C385" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D385" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E385" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="C386" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D386" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E386" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-10-56-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="C387" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D387" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E387" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-19-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="C388" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D388" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-19-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="C389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D389" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-19-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C390" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D390" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E390" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-19-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C391" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D391" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E391" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-19-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="C392" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D392" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E392" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-19-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="C393" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D393" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E393" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-19-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="C394" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D394" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E394" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="C395" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D395" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E395" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="C396" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D396" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E396" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-35</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="C397" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D397" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E397" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="C398" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D398" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E398" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C399" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D399" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E399" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C400" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D400" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E400" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="C401" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D401" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E401" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>236</v>
+      </c>
+      <c r="C402" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D402" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E402" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-21-38</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C403" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D403" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E403" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-22-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="C404" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D404" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E404" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-22-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="C405" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D405" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E405" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-22-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>287</v>
+      </c>
+      <c r="C406" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D406" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E406" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-22-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="C407" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D407" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E407" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-23-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="C408" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D408" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E408" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-23-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="C409" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D409" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E409" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-23-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="C410" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D410" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E410" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-23-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="C411" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D411" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E411" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-23-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="C412" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D412" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E412" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-23-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="C413" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D413" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E413" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-23-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="C414" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D414" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E414" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-23-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="C415" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D415" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E415" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-24-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="C416" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D416" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E416" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-24-51</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="C417" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D417" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E417" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="C418" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D418" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E418" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="C419" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D419" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E419" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="C420" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D420" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E420" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="C421" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D421" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E421" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="C422" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D422" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E422" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="C423" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D423" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E423" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="C424" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D424" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E424" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="C425" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D425" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E425" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-25-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="C426" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D426" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E426" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-34-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="C427" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D427" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E427" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-34-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="C428" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D428" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E428" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-34-34</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="C429" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D429" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E429" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-35-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="C430" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D430" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E430" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-35-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="C431" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D431" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E431" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-35-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="C432" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D432" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E432" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-36-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="C433" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D433" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E433" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-36-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="C434" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D434" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E434" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-37-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="C435" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D435" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E435" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-37-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="C436" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D436" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E436" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-37-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="C437" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D437" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E437" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-38-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C438" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D438" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E438" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-11-38-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C439" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D439" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E439" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-01-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="C440" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D440" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E440" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-01-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="C441" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D441" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E441" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-18-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C442" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D442" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E442" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-19-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="C443" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D443" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E443" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-28-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="C444" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D444" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E444" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-31-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C445" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D445" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E445" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-31-42</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="C446" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D446" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E446" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-31-43</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C447" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D447" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E447" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-31-56</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="C448" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D448" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E448" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-12-32-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="C449" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D449" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E449" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-13-59-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="C450" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D450" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E450" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-13-59-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="C451" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D451" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E451" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-13-59-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="C452" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D452" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E452" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-13-59-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="C453" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D453" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E453" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-00-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="C454" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D454" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E454" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-00-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="C455" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D455" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E455" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-00-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="C456" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D456" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E456" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-00-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="C457" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D457" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E457" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-05-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="C458" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D458" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-05-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="C459" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D459" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-11-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="C460" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D460" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E460" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-11-50</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>250</v>
+      </c>
+      <c r="C461" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D461" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E461" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-12-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="C462" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D462" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E462" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-12-57</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C463" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D463" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E463" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-12-58</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="C464" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D464" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E464" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-12-58</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="C465" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D465" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E465" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-13-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="C466" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D466" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E466" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-13-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="C467" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D467" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E467" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-14-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="C468" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D468" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E468" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-14-55</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="C469" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D469" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-22-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C470" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D470" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E470" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-22-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="C471" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D471" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E471" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-22-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="C472" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D472" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-42-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="C473" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D473" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E473" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-42-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="C474" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D474" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E474" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-42-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="C475" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D475" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E475" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-42-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="C476" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D476" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E476" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-52-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>284</v>
+      </c>
+      <c r="C477" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D477" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E477" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-52-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="C478" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D478" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E478" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="C479" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D479" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E479" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C480" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D480" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E480" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="C481" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D481" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E481" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="C482" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D482" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E482" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="C483" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D483" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E483" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="C484" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D484" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E484" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C485" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D485" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E485" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="C486" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D486" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E486" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C487" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D487" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E487" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="C488" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D488" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E488" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-54-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="C489" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D489" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E489" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="C490" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D490" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E490" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="C491" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D491" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="C492" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D492" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C493" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D493" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="C494" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D494" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C495" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D495" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="C496" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D496" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E496" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="C497" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D497" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E497" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="C498" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D498" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E498" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="C499" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D499" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E499" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="C500" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D500" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E500" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="C501" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D501" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E501" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="C502" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D502" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E502" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="C503" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D503" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E503" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>247</v>
+      </c>
+      <c r="C504" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D504" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E504" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-14-55-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C505" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D505" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E505" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-05-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C506" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D506" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E506" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-05-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C507" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D507" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E507" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-05-47</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="C508" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D508" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E508" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-05-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="C509" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D509" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E509" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-05-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C510" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D510" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E510" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-05-48</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="C511" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D511" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E511" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-05-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="C512" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D512" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E512" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-05-49</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="C513" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D513" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E513" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="C514" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D514" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E514" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="C515" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D515" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E515" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-06-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="C516" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D516" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E516" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="C517" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D517" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E517" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-06-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="C518" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D518" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E518" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>282</v>
+      </c>
+      <c r="C519" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D519" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E519" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C520" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D520" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E520" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-07-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="C521" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D521" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E521" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-07-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="C522" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D522" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E522" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-07-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="C523" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D523" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E523" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="C524" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D524" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E524" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="C525" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D525" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E525" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="C526" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D526" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E526" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>261</v>
+      </c>
+      <c r="C527" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D527" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E527" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>260</v>
+      </c>
+      <c r="C528" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D528" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E528" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="C529" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D529" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E529" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>268</v>
+      </c>
+      <c r="C530" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D530" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E530" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>269</v>
+      </c>
+      <c r="C531" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D531" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E531" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>272</v>
+      </c>
+      <c r="C532" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D532" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E532" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="C533" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D533" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E533" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>279</v>
+      </c>
+      <c r="C534" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D534" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E534" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="C535" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D535" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E535" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C536" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D536" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E536" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C537" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D537" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E537" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-09-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="C538" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D538" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E538" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="C539" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D539" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E539" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-09-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="C540" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D540" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E540" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-09-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="C541" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D541" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E541" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-09-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="C542" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D542" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E542" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="C543" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D543" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E543" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="C544" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D544" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E544" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="C545" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D545" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E545" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="C546" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D546" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E546" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="C547" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D547" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E547" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="C548" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D548" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E548" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="C549" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D549" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E549" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="C550" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D550" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E550" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="C551" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D551" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E551" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="C552" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D552" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E552" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="C553" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D553" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E553" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>240</v>
+      </c>
+      <c r="C554" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D554" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E554" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="C555" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D555" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E555" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-10-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="C556" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D556" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E556" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="C557" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D557" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E557" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="C558" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D558" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E558" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="C559" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D559" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E559" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="C560" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D560" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E560" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="C561" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D561" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E561" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="C562" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D562" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E562" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C563" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D563" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E563" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>273</v>
+      </c>
+      <c r="C564" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D564" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E564" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="C565" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D565" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E565" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-18-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="C566" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D566" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E566" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-18-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="C567" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D567" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E567" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-18-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="C568" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D568" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E568" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-18-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="C569" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D569" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E569" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-21-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="C570" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D570" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E570" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-21-40</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="C571" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D571" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E571" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-21-41</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="C572" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D572" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E572" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-22-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="C573" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D573" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E573" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-25-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="C574" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D574" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E574" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-25-39</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="C575" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D575" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E575" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-30-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="C576" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D576" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E576" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-31-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="C577" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D577" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E577" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-31-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="C578" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D578" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E578" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="C579" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D579" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E579" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-31-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="C580" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D580" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E580" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-31-33</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C581" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D581" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E581" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-31-36</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="C582" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D582" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E582" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-31-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="C583" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D583" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E583" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-31-37</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="C584" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D584" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E584" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-42-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="C585" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D585" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E585" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-42-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="C586" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D586" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E586" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-57-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="C587" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D587" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E587" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-57-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="C588" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D588" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E588" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-58-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="C589" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D589" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E589" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-15-59-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="C590" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D590" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E590" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-16-00-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="C591" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D591" s="2" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="E591" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-16-01-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="C592" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D592" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E592" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-16-08-52</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="C593" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D593" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E593" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-16-08-53</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="C594" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D594" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E594" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-16-39-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="C595" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D595" s="2" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E595" s="2" t="inlineStr">
+        <is>
+          <t>2024-11-08-16-39-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>113</v>
+      </c>
+      <c r="B596" t="n">
+        <v>196</v>
+      </c>
+      <c r="C596" t="n">
+        <v>2</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>OUT</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>2024-11-08-16-39-45</t>
         </is>
       </c>
     </row>
